--- a/resume/新建 Microsoft Excel 工作表.xlsx
+++ b/resume/新建 Microsoft Excel 工作表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2180341F-5172-436C-9ED5-1296A60DB366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699999DC-1829-4D65-8B25-C1DBB2FD2F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -420,22 +420,22 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -443,32 +443,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -476,17 +476,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -494,22 +494,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>

--- a/resume/新建 Microsoft Excel 工作表.xlsx
+++ b/resume/新建 Microsoft Excel 工作表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2180341F-5172-436C-9ED5-1296A60DB366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75FBA5B-24EB-48E9-85EF-79524EBED8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +93,18 @@
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉佰钧成技术有限责任公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪资太低 12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -522,4 +535,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA9E0AE-9365-4088-9F79-9526EF379473}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.4140625" customWidth="1"/>
+    <col min="3" max="3" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/resume/新建 Microsoft Excel 工作表.xlsx
+++ b/resume/新建 Microsoft Excel 工作表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8BF897-783D-4F46-8F36-69C471C5536F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4909D0C3-8BAF-41A2-BA9E-7A6215D8ED73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +93,18 @@
   </si>
   <si>
     <t>√</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉佰钧成技术责任有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪资问题 12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,7 +432,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -522,4 +535,38 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.4140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/resume/新建 Microsoft Excel 工作表.xlsx
+++ b/resume/新建 Microsoft Excel 工作表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4909D0C3-8BAF-41A2-BA9E-7A6215D8ED73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CCE06A-DFBD-4A9F-9979-79925D4F4966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,15 +96,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>智联</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>武汉佰钧成技术责任有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>薪资问题 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诚迈科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外包问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京三维天地（武汉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周二通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华为od</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下周一通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉四维图新科技有限公司</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,8 +176,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -539,10 +570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -551,17 +582,54 @@
     <col min="3" max="3" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>44641</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/resume/新建 Microsoft Excel 工作表.xlsx
+++ b/resume/新建 Microsoft Excel 工作表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CCE06A-DFBD-4A9F-9979-79925D4F4966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301BD6EB-24C7-4DF2-99AE-B95C660CB84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,10 @@
   </si>
   <si>
     <t>武汉四维图新科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周二通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,19 +471,19 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -487,32 +491,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -520,17 +524,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -538,22 +542,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -573,21 +577,21 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.4140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>44638</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -595,7 +599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -603,7 +607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -611,7 +615,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -622,14 +626,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44641</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/resume/新建 Microsoft Excel 工作表.xlsx
+++ b/resume/新建 Microsoft Excel 工作表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\project\zcc-study\resume\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\zcc-study\resume\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301BD6EB-24C7-4DF2-99AE-B95C660CB84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB158FC0-6B4F-49F0-BE9D-5606FE26345A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>猎聘</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,14 @@
   </si>
   <si>
     <t>周二通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中软国际</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待技术面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,19 +479,19 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -491,32 +499,32 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -524,17 +532,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -542,22 +550,22 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -574,24 +582,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9D255F-D583-481B-8EF8-9AA71766DF26}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="1" max="1" width="25.4140625" customWidth="1"/>
+    <col min="3" max="3" width="15.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>44638</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -599,7 +607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -607,7 +615,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -615,7 +623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -625,18 +633,31 @@
       <c r="D5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44641</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
